--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Nombre</t>
   </si>
@@ -115,6 +115,102 @@
   </si>
   <si>
     <t>ana.fc@correo.ugr.es</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Morales Díaz</t>
+  </si>
+  <si>
+    <t>elena.md@ugr.es</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>Ing. Telecomunicaciones; Ing. Informática</t>
+  </si>
+  <si>
+    <t>Teoría de la Señal</t>
+  </si>
+  <si>
+    <t>ST;SRC;DSP</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>López Herrera</t>
+  </si>
+  <si>
+    <t>ricardo.lh@ugr.es</t>
+  </si>
+  <si>
+    <t>Ing. Electrónica; Ing. Industrial</t>
+  </si>
+  <si>
+    <t>Automática</t>
+  </si>
+  <si>
+    <t>RIM;Control;SRC</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Martínez Robles</t>
+  </si>
+  <si>
+    <t>sonia.mr@ugr.es</t>
+  </si>
+  <si>
+    <t>Ing. Telecomunicaciones; Ing. Biomédica</t>
+  </si>
+  <si>
+    <t>Bioingeniería</t>
+  </si>
+  <si>
+    <t>ST;Biomed;RIM</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Torres Gutiérrez</t>
+  </si>
+  <si>
+    <t>miguel.tg@ugr.es</t>
+  </si>
+  <si>
+    <t>Ing. Informática; Ing. Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Computación</t>
+  </si>
+  <si>
+    <t>DSP;SRC;IA</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Ruiz Fernández</t>
+  </si>
+  <si>
+    <t>laura.rf@ugr.es</t>
+  </si>
+  <si>
+    <t>Ing. Industrial; Ing. Electrónica</t>
+  </si>
+  <si>
+    <t>Electrónica de Potencia</t>
+  </si>
+  <si>
+    <t>RIM;Electrónica;ST</t>
   </si>
 </sst>
 </file>
@@ -494,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -694,6 +790,151 @@
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24567891</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23456782</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>25678903</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22987654</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3">
+        <v>21876543</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Nombre</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>RIM;Electrónica;ST</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Maciá Fernandez</t>
+  </si>
+  <si>
+    <t>gmacia@ugr.es</t>
   </si>
 </sst>
 </file>
@@ -590,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +613,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="20.109375" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -935,6 +944,32 @@
       </c>
       <c r="I12" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32154</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -945,6 +980,7 @@
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Nombre</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>gmacia@ugr.es</t>
+  </si>
+  <si>
+    <t>Jose ramon</t>
+  </si>
+  <si>
+    <t>joseravelgar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clara </t>
+  </si>
+  <si>
+    <t>velascofuentesclara@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,6 +984,58 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2154</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -981,6 +1045,8 @@
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="D15" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
